--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2585.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2585.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8210207824582271</v>
+        <v>1.764084815979004</v>
       </c>
       <c r="B1">
-        <v>1.315230713407236</v>
+        <v>5.376907825469971</v>
       </c>
       <c r="C1">
-        <v>3.150593141969114</v>
+        <v>3.547969341278076</v>
       </c>
       <c r="D1">
-        <v>2.300991259103402</v>
+        <v>0.9269639253616333</v>
       </c>
       <c r="E1">
-        <v>0.9834105678955113</v>
+        <v>0.5927579998970032</v>
       </c>
     </row>
   </sheetData>
